--- a/data/trans_bre/P57B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57B_R-Provincia-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3917918273657862</v>
+        <v>-0.3385541035351159</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1082857547511436</v>
+        <v>-0.1121235424499226</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.217920663517785</v>
+        <v>5.272827611528429</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2.477106035325612</v>
+        <v>2.477772259214611</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2.856962734630418</v>
+        <v>2.85696273463042</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.7736399496339792</v>
+        <v>0.7736399496339795</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2660729324904347</v>
+        <v>0.2064172499392023</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02256979047690974</v>
+        <v>-0.01570733915641975</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.348596465100613</v>
+        <v>5.385670274836248</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.385351741796331</v>
+        <v>2.228039634498973</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4.391229623579225</v>
+        <v>4.391229623579227</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.3930591679872935</v>
+        <v>0.3930591679872937</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1143990364175568</v>
+        <v>-0.5134369450855845</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.005090656289539633</v>
+        <v>-0.03340243154289849</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.581698387378671</v>
+        <v>8.415092389560661</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.9714826118050419</v>
+        <v>0.9399928277865276</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>5.50832460367578</v>
+        <v>5.508324603675783</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.8168040188370818</v>
+        <v>0.8168040188370825</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.079324288144371</v>
+        <v>1.156344298996185</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.05784444301779899</v>
+        <v>0.056583078982743</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.472710960815297</v>
+        <v>10.31988179999745</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.933596275705529</v>
+        <v>2.299153717401428</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>7.709709227954625</v>
+        <v>7.70970922795462</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.3263843178717415</v>
+        <v>0.3263843178717413</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.299215906610518</v>
+        <v>1.592535046818652</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.04195301440388707</v>
+        <v>0.05841779612657064</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.85459626316107</v>
+        <v>14.09971325011345</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.6778864768407459</v>
+        <v>0.7265068049796847</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>5.029595909916998</v>
+        <v>5.029595909916987</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.3377114798505719</v>
+        <v>0.3377114798505712</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2176482116841296</v>
+        <v>0.1428211340482575</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.0110880050445643</v>
+        <v>0.001530067605942603</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.14221233119821</v>
+        <v>10.06603712608044</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8451500563432713</v>
+        <v>0.8301768907065619</v>
       </c>
     </row>
     <row r="22">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>3.252919205846848</v>
+        <v>3.252919205846849</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.455511679544444</v>
+        <v>0.4555116795444443</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3390516132144505</v>
+        <v>0.2401901513761461</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.02925261471124152</v>
+        <v>0.01258403876739939</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.427589471440666</v>
+        <v>6.287008413980827</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>1.136606204905379</v>
+        <v>1.057394316249727</v>
       </c>
     </row>
     <row r="25">
@@ -877,7 +877,7 @@
         <v>5.980271391660905</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.3733431881640025</v>
+        <v>0.3733431881640024</v>
       </c>
     </row>
     <row r="26">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.326322691925903</v>
+        <v>2.394611059746684</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1286352935143271</v>
+        <v>0.1376929228975626</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.559179757641138</v>
+        <v>9.735154444907078</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6811446740603596</v>
+        <v>0.6927310070084503</v>
       </c>
     </row>
     <row r="28">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>4.536064542895161</v>
+        <v>4.536064542895158</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0.4439695531382528</v>
+        <v>0.4439695531382525</v>
       </c>
     </row>
     <row r="29">
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.198209348367223</v>
+        <v>3.156127406571264</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0.2890845516015</v>
+        <v>0.2822112365705701</v>
       </c>
     </row>
     <row r="30">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.947306844195406</v>
+        <v>5.936527735528781</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>0.6295241746117115</v>
+        <v>0.6268988555206939</v>
       </c>
     </row>
     <row r="31">
